--- a/Modelos em Python/ljung_tst.xlsx
+++ b/Modelos em Python/ljung_tst.xlsx
@@ -453,12 +453,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.826</t>
+          <t xml:space="preserve"> 0.622</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.998</t>
+          <t>1.000</t>
         </is>
       </c>
     </row>
@@ -470,12 +470,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.075</t>
+          <t xml:space="preserve"> 0.495</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.434</t>
+          <t>0.398</t>
         </is>
       </c>
     </row>
@@ -487,12 +487,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>22.404</t>
+          <t>10.716</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.013</t>
+          <t>0.380</t>
         </is>
       </c>
     </row>
@@ -504,12 +504,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.089</t>
+          <t>12.007</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.996</t>
+          <t>0.285</t>
         </is>
       </c>
     </row>
@@ -521,12 +521,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.647</t>
+          <t>11.747</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.663</t>
+          <t>0.302</t>
         </is>
       </c>
     </row>
@@ -538,12 +538,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8.034</t>
+          <t xml:space="preserve"> 5.021</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.626</t>
+          <t>0.890</t>
         </is>
       </c>
     </row>
@@ -555,12 +555,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.568</t>
+          <t xml:space="preserve"> 1.523</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.999</t>
         </is>
       </c>
     </row>
@@ -572,12 +572,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.260</t>
+          <t xml:space="preserve"> 3.424</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.970</t>
         </is>
       </c>
     </row>

--- a/Modelos em Python/ljung_tst.xlsx
+++ b/Modelos em Python/ljung_tst.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.622</t>
+          <t xml:space="preserve"> 0.857</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -470,12 +470,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.495</t>
+          <t xml:space="preserve"> 7.795</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.398</t>
+          <t>0.649</t>
         </is>
       </c>
     </row>
@@ -487,12 +487,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10.716</t>
+          <t xml:space="preserve"> 7.886</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.380</t>
+          <t>0.640</t>
         </is>
       </c>
     </row>
@@ -504,12 +504,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>12.007</t>
+          <t>19.344</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.036</t>
         </is>
       </c>
     </row>
@@ -521,12 +521,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>11.747</t>
+          <t xml:space="preserve"> 9.499</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.302</t>
+          <t>0.485</t>
         </is>
       </c>
     </row>
@@ -538,12 +538,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.021</t>
+          <t xml:space="preserve"> 4.970</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.890</t>
+          <t>0.893</t>
         </is>
       </c>
     </row>
@@ -555,12 +555,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.523</t>
+          <t xml:space="preserve"> 0.597</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.999</t>
+          <t>1.000</t>
         </is>
       </c>
     </row>
@@ -572,12 +572,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.424</t>
+          <t xml:space="preserve"> 2.985</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.970</t>
+          <t>0.982</t>
         </is>
       </c>
     </row>

--- a/Modelos em Python/ljung_tst.xlsx
+++ b/Modelos em Python/ljung_tst.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.857</t>
+          <t xml:space="preserve"> 0.616</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -470,12 +470,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.795</t>
+          <t xml:space="preserve"> 0.495</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.649</t>
+          <t>0.398</t>
         </is>
       </c>
     </row>
@@ -487,12 +487,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.886</t>
+          <t>10.716</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.640</t>
+          <t>0.380</t>
         </is>
       </c>
     </row>
@@ -504,12 +504,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>19.344</t>
+          <t>12.007</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.036</t>
+          <t>0.285</t>
         </is>
       </c>
     </row>
@@ -521,12 +521,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.499</t>
+          <t>11.978</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.485</t>
+          <t>0.287</t>
         </is>
       </c>
     </row>
@@ -538,12 +538,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.970</t>
+          <t xml:space="preserve"> 4.530</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.893</t>
+          <t>0.920</t>
         </is>
       </c>
     </row>
@@ -555,12 +555,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.597</t>
+          <t xml:space="preserve"> 1.523</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.999</t>
         </is>
       </c>
     </row>
@@ -572,12 +572,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.985</t>
+          <t xml:space="preserve"> 3.377</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.982</t>
+          <t>0.971</t>
         </is>
       </c>
     </row>

--- a/Modelos em Python/ljung_tst.xlsx
+++ b/Modelos em Python/ljung_tst.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.616</t>
+          <t xml:space="preserve"> 0.622</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -521,12 +521,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>11.978</t>
+          <t>11.747</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.287</t>
+          <t>0.302</t>
         </is>
       </c>
     </row>
@@ -538,12 +538,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.530</t>
+          <t xml:space="preserve"> 5.021</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.920</t>
+          <t>0.890</t>
         </is>
       </c>
     </row>
@@ -572,12 +572,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.377</t>
+          <t xml:space="preserve"> 3.424</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.971</t>
+          <t>0.970</t>
         </is>
       </c>
     </row>

--- a/Modelos em Python/ljung_tst.xlsx
+++ b/Modelos em Python/ljung_tst.xlsx
@@ -453,12 +453,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.622</t>
+          <t xml:space="preserve"> 1.826</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.998</t>
         </is>
       </c>
     </row>
@@ -470,12 +470,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.495</t>
+          <t xml:space="preserve"> 0.075</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.398</t>
+          <t>0.434</t>
         </is>
       </c>
     </row>
@@ -487,12 +487,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10.716</t>
+          <t>22.404</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.380</t>
+          <t>0.013</t>
         </is>
       </c>
     </row>
@@ -504,12 +504,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>12.007</t>
+          <t xml:space="preserve"> 2.089</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.285</t>
+          <t>0.996</t>
         </is>
       </c>
     </row>
@@ -521,12 +521,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>11.747</t>
+          <t xml:space="preserve"> 7.647</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.302</t>
+          <t>0.663</t>
         </is>
       </c>
     </row>
@@ -538,12 +538,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.021</t>
+          <t xml:space="preserve"> 6.531</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.890</t>
+          <t>0.769</t>
         </is>
       </c>
     </row>
@@ -555,12 +555,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.523</t>
+          <t xml:space="preserve"> 0.568</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.999</t>
+          <t>1.000</t>
         </is>
       </c>
     </row>
@@ -572,12 +572,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.424</t>
+          <t xml:space="preserve"> 0.800</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.970</t>
+          <t>1.000</t>
         </is>
       </c>
     </row>

--- a/Modelos em Python/ljung_tst.xlsx
+++ b/Modelos em Python/ljung_tst.xlsx
@@ -453,12 +453,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.826</t>
+          <t>13.803</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.998</t>
+          <t>0.182</t>
         </is>
       </c>
     </row>
@@ -470,12 +470,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.075</t>
+          <t>11.179</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.434</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -487,12 +487,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>22.404</t>
+          <t>86.743</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.013</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -504,12 +504,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.089</t>
+          <t>45.305</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.996</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -521,12 +521,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.647</t>
+          <t>21.720</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.663</t>
+          <t>0.017</t>
         </is>
       </c>
     </row>
@@ -538,12 +538,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6.531</t>
+          <t xml:space="preserve"> 9.209</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.769</t>
+          <t>0.512</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.568</t>
+          <t xml:space="preserve"> 0.530</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.800</t>
+          <t xml:space="preserve"> 1.011</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">

--- a/Modelos em Python/ljung_tst.xlsx
+++ b/Modelos em Python/ljung_tst.xlsx
@@ -453,12 +453,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>13.803</t>
+          <t xml:space="preserve"> 0.857</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.182</t>
+          <t>1.000</t>
         </is>
       </c>
     </row>
@@ -470,12 +470,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>11.179</t>
+          <t xml:space="preserve"> 7.795</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.649</t>
         </is>
       </c>
     </row>
@@ -487,12 +487,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>86.743</t>
+          <t xml:space="preserve"> 7.886</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.640</t>
         </is>
       </c>
     </row>
@@ -504,12 +504,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>45.305</t>
+          <t>19.344</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.036</t>
         </is>
       </c>
     </row>
@@ -521,12 +521,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>21.720</t>
+          <t xml:space="preserve"> 9.499</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.017</t>
+          <t>0.485</t>
         </is>
       </c>
     </row>
@@ -538,12 +538,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.209</t>
+          <t xml:space="preserve"> 3.567</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.512</t>
+          <t>0.965</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.530</t>
+          <t xml:space="preserve"> 0.597</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -572,12 +572,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.011</t>
+          <t xml:space="preserve"> 3.717</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.959</t>
         </is>
       </c>
     </row>

--- a/Modelos em Python/ljung_tst.xlsx
+++ b/Modelos em Python/ljung_tst.xlsx
@@ -521,7 +521,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.499</t>
+          <t xml:space="preserve"> 9.508</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -538,12 +538,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.567</t>
+          <t xml:space="preserve"> 4.250</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.965</t>
+          <t>0.935</t>
         </is>
       </c>
     </row>

--- a/Modelos em Python/ljung_tst.xlsx
+++ b/Modelos em Python/ljung_tst.xlsx
@@ -453,12 +453,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.857</t>
+          <t xml:space="preserve"> 1.689</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.998</t>
         </is>
       </c>
     </row>
@@ -470,12 +470,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.795</t>
+          <t xml:space="preserve"> 7.534</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.649</t>
+          <t>0.674</t>
         </is>
       </c>
     </row>
@@ -487,12 +487,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.886</t>
+          <t>25.120</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.640</t>
+          <t>0.005</t>
         </is>
       </c>
     </row>
@@ -504,12 +504,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>19.344</t>
+          <t>31.766</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.036</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -521,12 +521,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.508</t>
+          <t>31.766</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.485</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -538,12 +538,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.250</t>
+          <t>24.126</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.935</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -555,12 +555,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.597</t>
+          <t>53.713</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -572,12 +572,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.717</t>
+          <t>07.003</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.959</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>

--- a/Modelos em Python/ljung_tst.xlsx
+++ b/Modelos em Python/ljung_tst.xlsx
@@ -453,12 +453,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.689</t>
+          <t xml:space="preserve"> 0.857</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.998</t>
+          <t>1.000</t>
         </is>
       </c>
     </row>
@@ -470,12 +470,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.534</t>
+          <t xml:space="preserve"> 7.795</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.674</t>
+          <t>0.649</t>
         </is>
       </c>
     </row>
@@ -487,12 +487,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>25.120</t>
+          <t xml:space="preserve"> 7.886</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.005</t>
+          <t>0.640</t>
         </is>
       </c>
     </row>
@@ -504,12 +504,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>31.766</t>
+          <t>19.344</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.036</t>
         </is>
       </c>
     </row>
@@ -521,12 +521,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>31.766</t>
+          <t xml:space="preserve"> 9.508</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.485</t>
         </is>
       </c>
     </row>
@@ -538,12 +538,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>24.126</t>
+          <t xml:space="preserve"> 5.002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.891</t>
         </is>
       </c>
     </row>
@@ -555,12 +555,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>53.713</t>
+          <t xml:space="preserve"> 0.597</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>1.000</t>
         </is>
       </c>
     </row>
@@ -572,12 +572,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>07.003</t>
+          <t xml:space="preserve"> 3.215</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.976</t>
         </is>
       </c>
     </row>

--- a/Modelos em Python/ljung_tst.xlsx
+++ b/Modelos em Python/ljung_tst.xlsx
@@ -538,12 +538,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.002</t>
+          <t xml:space="preserve"> 4.250</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.891</t>
+          <t>0.935</t>
         </is>
       </c>
     </row>
@@ -572,12 +572,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.215</t>
+          <t xml:space="preserve"> 3.717</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.976</t>
+          <t>0.959</t>
         </is>
       </c>
     </row>

--- a/Modelos em Python/ljung_tst.xlsx
+++ b/Modelos em Python/ljung_tst.xlsx
@@ -453,12 +453,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.857</t>
+          <t>67.818</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -470,12 +470,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.795</t>
+          <t>69.965</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.649</t>
+          <t>0.444</t>
         </is>
       </c>
     </row>
@@ -487,12 +487,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7.886</t>
+          <t>77.884</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.640</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -504,12 +504,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>19.344</t>
+          <t xml:space="preserve"> 1.545</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.036</t>
+          <t>0.999</t>
         </is>
       </c>
     </row>
@@ -521,12 +521,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.508</t>
+          <t xml:space="preserve"> 5.354</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.485</t>
+          <t>0.866</t>
         </is>
       </c>
     </row>
@@ -538,12 +538,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4.250</t>
+          <t>24.663</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.935</t>
+          <t>0.006</t>
         </is>
       </c>
     </row>
@@ -555,12 +555,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.597</t>
+          <t>15.537</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -572,12 +572,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.717</t>
+          <t>59.710</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.959</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>

--- a/Modelos em Python/ljung_tst.xlsx
+++ b/Modelos em Python/ljung_tst.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>47.177</t>
+          <t>70.886</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -470,12 +470,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>49.965</t>
+          <t>71.500</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.444</t>
+          <t>0.320</t>
         </is>
       </c>
     </row>
@@ -487,12 +487,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>77.884</t>
+          <t>0697.7</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t xml:space="preserve">  0.0</t>
         </is>
       </c>
     </row>
@@ -504,12 +504,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.545</t>
+          <t xml:space="preserve"> 9.415</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.999</t>
+          <t>0.493</t>
         </is>
       </c>
     </row>
@@ -521,12 +521,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5.354</t>
+          <t>10.356</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.866</t>
+          <t>0.410</t>
         </is>
       </c>
     </row>
@@ -538,12 +538,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>24.663</t>
+          <t>75.065</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.006</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>36.738</t>
+          <t>59.777</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -572,12 +572,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>21.236</t>
+          <t>31.799</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.020</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>

--- a/Modelos em Python/ljung_tst.xlsx
+++ b/Modelos em Python/ljung_tst.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>70.886</t>
+          <t>36.884</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -470,12 +470,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>71.500</t>
+          <t>36.799</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.320</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -487,12 +487,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0697.7</t>
+          <t>71.945</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  0.0</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -504,12 +504,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 9.415</t>
+          <t xml:space="preserve"> 9.706</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.493</t>
+          <t>0.467</t>
         </is>
       </c>
     </row>
@@ -521,12 +521,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>10.356</t>
+          <t>60.289</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.410</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -538,7 +538,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>75.065</t>
+          <t>70.992</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -555,7 +555,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>59.777</t>
+          <t>48.435</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>31.799</t>
+          <t>45.749</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
